--- a/Source Databases/2015 World Bank SAE by Country - UN Status.xlsx
+++ b/Source Databases/2015 World Bank SAE by Country - UN Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\GIT Repository CAM\Rice-Boot-Camp-Project-1\Source Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA8534-AA55-44FB-AB4C-1F3CCBE7AC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040B9636-EDD2-4BAE-B4AB-74A808206038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="695" activeTab="4" xr2:uid="{2336F87C-880E-4ADE-BE35-7D4029A60674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="695" xr2:uid="{2336F87C-880E-4ADE-BE35-7D4029A60674}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -1948,6 +1948,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="688809840"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2344,6 +2345,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="332279552"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2740,6 +2742,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="329093440"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3136,6 +3139,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="332271232"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3626,11 +3630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB4271-E2A4-4AEB-B679-AB827E751791}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3685,7 +3688,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>461</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>58483061.912447996</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>4926228.0684479997</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>457</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>1394807.801616</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>5632162.5742560001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>453</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>8327614.784616</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>451</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>4714561.6311600003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>449</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>148287.28690800001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>1823259.583476</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>445</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>546907.70008800004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>443</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>430018.10560800001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>441</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>656633.00988000003</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>625305.57195600006</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>3159454.3622280001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>435</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>1053513.2633760001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>433</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>967638.85527599999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>431</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>1276695.535932</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>429</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>58918.659264000002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>427</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>114898.93855200001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>423</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>707440.95831599995</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>421</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>19161.30888</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>417</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>2537766.0180000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>376732.24145999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>413</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>195249.15712799999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>411</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>391131.19094399997</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>409</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>893623.68377999996</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>407</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>136426.63526000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>403</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>81717.669324000002</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>401</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>8317.4798334810002</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>395</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O37">
         <v>340</v>
@@ -5485,7 +5488,7 @@
         <v>4701.1000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>389</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>2385146.9003400002</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>387</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>6507.9296599999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>383</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>3233353.3500239998</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>381</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>25636.488809999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O44">
         <v>28484</v>
@@ -5835,7 +5838,7 @@
         <v>191733.45929999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>1111053.7118160001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>373</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>11307.928725</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>371</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>12219.949926900001</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>367</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>62845.249250000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>361</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>278473.27896000003</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>359</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>180007.48853999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>357</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>80179.773948000002</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>1511.995825</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>38929.996835999998</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>349</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>146862.6533445</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>347</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>246145.572648</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>343</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>284268.940596</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>341</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O64">
         <v>639.86</v>
@@ -6835,7 +6838,7 @@
         <v>4692.3283750000001</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>335</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>17654.481</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>333</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>329</v>
       </c>
@@ -7035,7 +7038,7 @@
         <v>1043328.5793</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>327</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>73183146.525900006</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>325</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>1068688.6967879999</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>323</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>3546.6484500000001</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>321</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>900161.246376</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O74">
         <v>29.4</v>
@@ -7335,7 +7338,7 @@
         <v>693.62</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>315</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>151721.844552</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>313</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>282467.65363199997</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -7535,7 +7538,7 @@
         <v>24714.219851999998</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>307</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>1495.0835300000001</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>303</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>226654.93007999999</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>301</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>494684.11083600001</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>299</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>2086104.91968</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>297</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>103161.621564</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>67460.501999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>23499.503568</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>291</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>7795.2470800000001</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>279</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>197755.96176000001</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>277</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>10206.03008</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>275</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O97">
         <v>207</v>
@@ -8676,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O101">
         <v>1730.6</v>
@@ -8685,7 +8688,7 @@
         <v>5619.6</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>429959.36480400001</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>259</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>137987.04571999999</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>257</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>27257.410500000002</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>255</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>26619.103999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>253</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>136690.6464</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>198453.69198</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>249</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>372163.06101599999</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>118646.29202399999</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>245</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>22241457.755856</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>243</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>6513819.0438599996</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>6565402.8482039999</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>2270.6999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>235</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>512100.15213599999</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>82139.196347999998</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -9485,7 +9488,7 @@
         <v>10559777.562072</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>229</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>229180.993992</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>1586534.8551119999</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>225</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>605.36055269999997</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O125">
         <v>67918</v>
@@ -9885,7 +9888,7 @@
         <v>616547.205036</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>213</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>122192.697</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>202341.13578000001</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>55693.272259400001</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>205</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>82192.82071</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>34125.699999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>77984.634707999998</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>193</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>131031.315055</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>191</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>60637.541407999997</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>189</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>15870.546969999999</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>17907.108459999999</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>41714.453800000003</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v>3248.9877000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -10985,7 +10988,7 @@
         <v>1651.8178049999999</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>169</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>130283.418888</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -11226,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O152">
         <v>24</v>
@@ -11235,7 +11238,7 @@
         <v>593.26840000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -11285,7 +11288,7 @@
         <v>604023.27206400002</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>435993.38096400001</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>731366.00823599997</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -11435,7 +11438,7 @@
         <v>71287.303824000002</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>33328.625200000002</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -11585,7 +11588,7 @@
         <v>530286.69024000003</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -11635,7 +11638,7 @@
         <v>103807.43546399999</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>143</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>113793.623352</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>141</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O163">
         <v>429.8</v>
@@ -11785,7 +11788,7 @@
         <v>1203.1199999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>137</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>756219.77413200005</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>135</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O165">
         <v>32758</v>
@@ -11885,7 +11888,7 @@
         <v>753718.83102000004</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>133</v>
       </c>
@@ -11976,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O167">
         <v>94.85</v>
@@ -11985,7 +11988,7 @@
         <v>2291.5</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>144680.27497200001</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>115716.22840000001</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>125</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>204860.50081200001</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>738633.53941199998</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>121</v>
       </c>
@@ -12285,7 +12288,7 @@
         <v>62946</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>117</v>
       </c>
@@ -12326,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O174">
         <v>41499</v>
@@ -12385,7 +12388,7 @@
         <v>39849.134064999998</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>15809140.426176</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>111</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>103</v>
       </c>
@@ -12685,7 +12688,7 @@
         <v>1955.125</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -12735,7 +12738,7 @@
         <v>4773763.6949159997</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>99</v>
       </c>
@@ -12785,7 +12788,7 @@
         <v>114203.51107199999</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>97</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>4277.6050999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>93</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>54796.592700000001</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>91</v>
       </c>
@@ -13085,7 +13088,7 @@
         <v>5078.3014999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>85</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>104906.42834499999</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>83</v>
       </c>
@@ -13235,7 +13238,7 @@
         <v>17653.642199999998</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>2427.7730000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>67</v>
       </c>
@@ -13685,7 +13688,7 @@
         <v>35582.635600000001</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>772440.40029599995</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>249253.97857199999</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>56</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>1966531.0839839999</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>54</v>
       </c>
@@ -13885,7 +13888,7 @@
         <v>98813.964708</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>52</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>938634.17025600001</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>4862.3249999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>46</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>1264.1085250000001</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>171888.06916799999</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>40</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>318320.68741200003</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -14285,7 +14288,7 @@
         <v>3629552.4948959998</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>36</v>
       </c>
@@ -14426,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <v>0</v>
+        <v>1E-14</v>
       </c>
       <c r="O216">
         <v>7.1</v>
@@ -14435,7 +14438,7 @@
         <v>88.266000000000005</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>30</v>
       </c>
@@ -14485,7 +14488,7 @@
         <v>528879.23582200997</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>28</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>1989251.0472599999</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>2093160.891852</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>184450.93938</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>22</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>2418.6033000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -14785,7 +14788,7 @@
         <v>1522150.872732</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -14935,7 +14938,7 @@
         <v>63990.57</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>106887.32928000001</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -15035,7 +15038,7 @@
         <v>342874.63656000001</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -15086,13 +15089,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P229" xr:uid="{9792CF4D-7770-4F6C-A30E-06F7A2821BE5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Other"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P229" xr:uid="{9792CF4D-7770-4F6C-A30E-06F7A2821BE5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15938,7 +15935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFE5F16-068E-44A0-AF75-8929EA3559FE}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E12"/>
     </sheetView>
   </sheetViews>
